--- a/plantTest.xlsx
+++ b/plantTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468D073-E8B5-442A-8014-EE58480C76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA88380-5A33-449A-A779-BABFD7EB6AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,15 +46,9 @@
     <t>OK / Description erreur</t>
   </si>
   <si>
-    <t>La page produite donne la description (de manière dynamique) du produit sélectionné en page d'accueil.</t>
-  </si>
-  <si>
     <t>Sélectionner un produit dans la page d'accueil pour arriver à la page produit où la description spécifique de celle-ci est affiché.</t>
   </si>
   <si>
-    <t>Affiche la description de produit choisie.</t>
-  </si>
-  <si>
     <t>Sur la page produit on peut sélectionner la couleur et le nombre de produits que l'on souhaite acheter</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>Aller à la page panier pour voir les informations d'achat de l'utilisateur</t>
   </si>
   <si>
-    <t>Dans le panier le résumé des différentes informations des produits que l'utilisateur à choisis est affiché.</t>
-  </si>
-  <si>
     <t>Sur la page panier la quantité du produit est modifiable (compris entre 1-100). Le produit peut être supprimé et change donc les informations fournies sur le prix et le nombre total de produit.</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>La page produit donne la description (de manière dynamique) du produit sélectionné en page d'accueil.</t>
+  </si>
+  <si>
+    <t>Affiche la description du produit choisie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À la page panier le résumé des différentes informations des produits que l'utilisateur à choisis est affiché.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -737,16 +737,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="89.4" customHeight="1" x14ac:dyDescent="0.5">
@@ -754,50 +754,50 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.5">
@@ -805,67 +805,67 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
@@ -873,89 +873,89 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>

--- a/plantTest.xlsx
+++ b/plantTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA88380-5A33-449A-A779-BABFD7EB6AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A549471-C158-4E81-9294-FA1025E888D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -43,36 +43,15 @@
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
     <t>Sélectionner un produit dans la page d'accueil pour arriver à la page produit où la description spécifique de celle-ci est affiché.</t>
   </si>
   <si>
     <t>Sur la page produit on peut sélectionner la couleur et le nombre de produits que l'on souhaite acheter</t>
   </si>
   <si>
-    <t>Pouvoir choisir la couleur et un nombre de 1 à 100 d'un produit.</t>
-  </si>
-  <si>
     <t>Sélectionner les couleurs(proposées de manière dynamique) et choisir un nombre spécifique de produit.</t>
   </si>
   <si>
-    <t>Après sélection des couleurs et du nombre de produits (compris entre 1-100) le bouton "ajouté au panier " devient cliquable</t>
-  </si>
-  <si>
-    <t>Sélectionner les couleurs et choisir un nombre compris entre 1 et 100 afin de pouvoir accès au bouton "ajouté au panier".</t>
-  </si>
-  <si>
-    <t>Le bouton "ajouté au panier" et cliquable si les conditions sont remplis.</t>
-  </si>
-  <si>
-    <t>Après avoir cliqué sur le bouton "ajouté au panier". Les informations sont sauvegardées en local.</t>
-  </si>
-  <si>
-    <t>L'id, la couleur et le nombre du produit sont stockés dans le local storage après avoir cliqué sur le bouton "ajouté au panier"</t>
-  </si>
-  <si>
     <t>Après confirmation du produit dans le panier, les informations fournies sur le produit sont stockés.</t>
   </si>
   <si>
@@ -88,46 +67,79 @@
     <t>Supprimé et changé la quantité du produit</t>
   </si>
   <si>
-    <t>La quantité du produit est modifiable dans le local storage. Le produit peut être supprimé de la liste du local storage</t>
-  </si>
-  <si>
     <t>Un système d'analyse permet de traité les informations que l'utilisateur rentre dans le formulaire afin de vérifier les informations fournit.</t>
   </si>
   <si>
     <t>Le formulaire permet de vérifier la validité des informations que l'utilisateur rentre</t>
   </si>
   <si>
-    <t>L'utilisateur indique les bonnes informations dans le formulaire</t>
-  </si>
-  <si>
-    <t>Après avoir cliqué sur la confirmation d'achat, un système vérifie si les informations remplies dans le formulaire sont bien remplies.</t>
-  </si>
-  <si>
-    <t>Remplir le formulaire avec des informations valide et erroné pour vérifié si le système fonctionne.</t>
-  </si>
-  <si>
-    <t>Le système confirme si les informations fournies par l'utilisateur sont correctes.</t>
-  </si>
-  <si>
-    <t>Après confirmation d'achat, la page redirige sur une page de confirmation avec l'id de commande.</t>
-  </si>
-  <si>
-    <t>Bien remplir les informations du formulaire puis cliquer sur le bouton commandé</t>
-  </si>
-  <si>
-    <t>Redirection de la page panier sur la page confirmation avec le numéro d'id de commande</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
     <t>La page produit donne la description (de manière dynamique) du produit sélectionné en page d'accueil.</t>
   </si>
   <si>
-    <t>Affiche la description du produit choisie.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> À la page panier le résumé des différentes informations des produits que l'utilisateur à choisis est affiché.</t>
+  </si>
+  <si>
+    <t>Modifier la couleur et la quantité d'un produit</t>
+  </si>
+  <si>
+    <t>Les produits s'affichent sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Affiche la description du produit choisi.</t>
+  </si>
+  <si>
+    <t>L'id, la couleur et le nombre du produit sont stockés dans le local storage après avoir cliqué sur le bouton "ajouter au panier"</t>
+  </si>
+  <si>
+    <t>Après avoir cliqué sur le bouton "ajouter au panier". Les informations sont sauvegardées en local.</t>
+  </si>
+  <si>
+    <t>La quantité du produit est modifiable dans le local storage. </t>
+  </si>
+  <si>
+    <t>Si l'utilisateur n'indique pas les bonnes informations relatives à chaque champ, une erreur apparaît.</t>
+  </si>
+  <si>
+    <t>Soumission du formulaire complété.</t>
+  </si>
+  <si>
+    <t>Clique sur la validation de la commande.</t>
+  </si>
+  <si>
+    <t>Le formulaire est soumis et utilisateur et redigéré sur la page confirmation</t>
+  </si>
+  <si>
+    <t>Affichage du numéro de commande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redirection sur la page confirmation </t>
+  </si>
+  <si>
+    <t>Un message de confirmation est afficher, l'identifiant de commande est envoyé depuis l'api.</t>
+  </si>
+  <si>
+    <t>La description du produit est affiché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A l'ajout du produit au panier, le produit est stocké dans le local storage. </t>
+  </si>
+  <si>
+    <t>Dans la section panier un résumé des différents produit que l'utilsateur a ajouté est affiché.</t>
+  </si>
+  <si>
+    <t>Les informations fournit par l'utilisateur est analisé afin de vérifié si elle sont correcte.Si elle ne sont pas correcte un message d'erreur est déployer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le quantité du produit sélectioné est modifiable et peut être supprimé du panier. </t>
+  </si>
+  <si>
+    <t>Les options de couleurs sont affiché et la quantité du produit pouvant être choisis  est comprise entre 1 et 100. Si  la quantité est supérieur où inférieur a ces valeurs un message d'alerte est affiché.</t>
+  </si>
+  <si>
+    <t>Une fois le formulaire validé, le site nous renvoie vers la page de confirmation.</t>
+  </si>
+  <si>
+    <t>Un message de confirmation apparaît avec le numéro d'ordre.</t>
   </si>
 </sst>
 </file>
@@ -685,19 +697,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="42" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="58.44140625" customWidth="1"/>
-    <col min="4" max="4" width="57.88671875" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.5">
@@ -737,67 +751,67 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="89.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.5">
@@ -805,157 +819,147 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -964,5 +968,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plantTest.xlsx
+++ b/plantTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A549471-C158-4E81-9294-FA1025E888D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E79A80-79C8-4E23-A8E1-57008EE165C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,39 +46,24 @@
     <t>Sélectionner un produit dans la page d'accueil pour arriver à la page produit où la description spécifique de celle-ci est affiché.</t>
   </si>
   <si>
-    <t>Sur la page produit on peut sélectionner la couleur et le nombre de produits que l'on souhaite acheter</t>
-  </si>
-  <si>
     <t>Sélectionner les couleurs(proposées de manière dynamique) et choisir un nombre spécifique de produit.</t>
   </si>
   <si>
     <t>Après confirmation du produit dans le panier, les informations fournies sur le produit sont stockés.</t>
   </si>
   <si>
-    <t>À la page panier les informations des produits que l'utilisateur a ajoutés dans le panier (le prix, quantité , la couleur, le prix total des produits et le nombre de produits) sont affichés.</t>
-  </si>
-  <si>
     <t>Aller à la page panier pour voir les informations d'achat de l'utilisateur</t>
   </si>
   <si>
-    <t>Sur la page panier la quantité du produit est modifiable (compris entre 1-100). Le produit peut être supprimé et change donc les informations fournies sur le prix et le nombre total de produit.</t>
-  </si>
-  <si>
     <t>Supprimé et changé la quantité du produit</t>
   </si>
   <si>
-    <t>Un système d'analyse permet de traité les informations que l'utilisateur rentre dans le formulaire afin de vérifier les informations fournit.</t>
-  </si>
-  <si>
     <t>Le formulaire permet de vérifier la validité des informations que l'utilisateur rentre</t>
   </si>
   <si>
     <t>La page produit donne la description (de manière dynamique) du produit sélectionné en page d'accueil.</t>
   </si>
   <si>
-    <t xml:space="preserve"> À la page panier le résumé des différentes informations des produits que l'utilisateur à choisis est affiché.</t>
-  </si>
-  <si>
     <t>Modifier la couleur et la quantité d'un produit</t>
   </si>
   <si>
@@ -88,9 +73,6 @@
     <t>Affiche la description du produit choisi.</t>
   </si>
   <si>
-    <t>L'id, la couleur et le nombre du produit sont stockés dans le local storage après avoir cliqué sur le bouton "ajouter au panier"</t>
-  </si>
-  <si>
     <t>Après avoir cliqué sur le bouton "ajouter au panier". Les informations sont sauvegardées en local.</t>
   </si>
   <si>
@@ -106,40 +88,58 @@
     <t>Clique sur la validation de la commande.</t>
   </si>
   <si>
-    <t>Le formulaire est soumis et utilisateur et redigéré sur la page confirmation</t>
-  </si>
-  <si>
     <t>Affichage du numéro de commande.</t>
   </si>
   <si>
     <t xml:space="preserve"> Redirection sur la page confirmation </t>
   </si>
   <si>
-    <t>Un message de confirmation est afficher, l'identifiant de commande est envoyé depuis l'api.</t>
-  </si>
-  <si>
-    <t>La description du produit est affiché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A l'ajout du produit au panier, le produit est stocké dans le local storage. </t>
-  </si>
-  <si>
-    <t>Dans la section panier un résumé des différents produit que l'utilsateur a ajouté est affiché.</t>
-  </si>
-  <si>
-    <t>Les informations fournit par l'utilisateur est analisé afin de vérifié si elle sont correcte.Si elle ne sont pas correcte un message d'erreur est déployer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le quantité du produit sélectioné est modifiable et peut être supprimé du panier. </t>
-  </si>
-  <si>
-    <t>Les options de couleurs sont affiché et la quantité du produit pouvant être choisis  est comprise entre 1 et 100. Si  la quantité est supérieur où inférieur a ces valeurs un message d'alerte est affiché.</t>
-  </si>
-  <si>
     <t>Une fois le formulaire validé, le site nous renvoie vers la page de confirmation.</t>
   </si>
   <si>
     <t>Un message de confirmation apparaît avec le numéro d'ordre.</t>
+  </si>
+  <si>
+    <t>Les options de couleurs sont affichées et la quantité du produit pouvant être choisis  est comprise entre 1 et 100. Si  la quantité est supérieure où inférieur a ces valeurs, un message d'alerte est affiché.</t>
+  </si>
+  <si>
+    <t>La description du produit est affichée.</t>
+  </si>
+  <si>
+    <t>À l'ajout du produit au panier, le produit est stocké dans le local storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans la section panier, un résumé des différents produits que l'utilisateur a ajoutés et affichés. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La quantité du produit sélectionné est modifiable et peut être supprimé du panier. </t>
+  </si>
+  <si>
+    <t>Les informations fournies  par l'utilisateur sont analysées afin de vérifier si elles ont corrects. Si elle n'est pas correcte, un message d'erreur est déployé</t>
+  </si>
+  <si>
+    <t>Sur la page produit, on peut sélectionner la couleur et le nombre de produits que l'on souhaite acheter</t>
+  </si>
+  <si>
+    <t>L'id, la couleur et le nombre du produit sont stockés dans le local storage après avoir cliqué sur le bouton "ajouter au panier".</t>
+  </si>
+  <si>
+    <t>À la page panier, les informations des produits que l'utilisateur a ajoutés dans le panier (le prix, quantité, la couleur, le prix total des produits et le nombre de produits) sont affichés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À la page panier, le résumé des différentes informations des produits que l'utilisateur a choisis sont affichés.</t>
+  </si>
+  <si>
+    <t>Sur la page panier, la quantité du produit est modifiable (compris entre 1-100). Le produit peut être supprimé et change donc les informations fournies sur le prix et le nombre total de produits.</t>
+  </si>
+  <si>
+    <t>Un système d'analyse permet de traiter les informations que l'utilisateur rentre dans le formulaire afin de vérifier les informations fournit.</t>
+  </si>
+  <si>
+    <t>Le formulaire est soumis et l'utilisateur est redirigé sur la page confirmation</t>
+  </si>
+  <si>
+    <t>Un message de confirmation est affiché, l'identifiant de commande est envoyé depuis l'api.</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="42" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="42" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.5">
@@ -751,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.5">
@@ -768,16 +768,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -785,16 +785,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
@@ -802,16 +802,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.5">
@@ -819,16 +819,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.5">
@@ -836,16 +836,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.5">
@@ -853,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.5">
@@ -870,19 +870,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>

--- a/plantTest.xlsx
+++ b/plantTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E79A80-79C8-4E23-A8E1-57008EE165C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC559814-4315-410B-AA64-06555FD040C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -763,7 +763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -797,7 +797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -831,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -848,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
